--- a/Documentation/Hardware/PinFunctions.xlsx
+++ b/Documentation/Hardware/PinFunctions.xlsx
@@ -1810,7 +1810,7 @@
   <dimension ref="A2:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
